--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Auto_Java_API\Template_Auto_API\src\test\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A5854-FEEF-48DC-8FE1-27AB79F9750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135B05C-895C-4F39-9546-EBC897D17D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Register" sheetId="2" r:id="rId1"/>
+    <sheet name="CreateACard" sheetId="2" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Anna</t>
   </si>
@@ -61,55 +61,47 @@
     <t>METHOD</t>
   </si>
   <si>
-    <t>Register successfully</t>
-  </si>
-  <si>
-    <t>Register failure</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>eve.holt@reqres.in</t>
-  </si>
-  <si>
-    <t>pistol</t>
-  </si>
-  <si>
     <t>STATUS_CODE</t>
   </si>
   <si>
     <t>STATUS_MESSAGE</t>
   </si>
   <si>
-    <t>sydney@fife</t>
-  </si>
-  <si>
-    <t>Missing password</t>
+    <t>Create a Card successfully</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>miniType</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. </t>
+  </si>
+  <si>
+    <t>This is a bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,9 +130,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -150,12 +141,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,22 +424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9604356E-1A15-4209-9B72-022C3FA8FAE0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
-    <col min="4" max="4" width="19.296875" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" customWidth="1"/>
+    <col min="9" max="9" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -460,71 +451,75 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45014</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -534,13 +529,12 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{951A989F-2817-430D-AB1A-5E82EB4307C9}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{07BD2ACE-5762-4649-8182-A72CF50C6EAC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135B05C-895C-4F39-9546-EBC897D17D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC32CF9-94EF-4BB9-BEAB-3E897C562E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateACard" sheetId="2" r:id="rId1"/>
-    <sheet name="Create" sheetId="1" r:id="rId2"/>
+    <sheet name="Board" sheetId="1" r:id="rId1"/>
+    <sheet name="Card" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,32 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Kaka</t>
-  </si>
-  <si>
-    <t>Sale</t>
-  </si>
-  <si>
-    <t>Hona</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -89,15 +68,45 @@
   </si>
   <si>
     <t>This is a bug</t>
+  </si>
+  <si>
+    <t>Create A Board Successfully</t>
+  </si>
+  <si>
+    <t>The new Chapter</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book</t>
+  </si>
+  <si>
+    <t>Update A Board Successfully</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>[Updated] The new Chapter</t>
+  </si>
+  <si>
+    <t>[Updated] Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book</t>
+  </si>
+  <si>
+    <t>2023-03-29</t>
+  </si>
+  <si>
+    <t>[Updated] New Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Updated] Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. </t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,17 +432,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9604356E-1A15-4209-9B72-022C3FA8FAE0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.69921875" customWidth="1"/>
     <col min="2" max="2" width="36.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.296875" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" customWidth="1"/>
@@ -442,37 +559,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -480,22 +597,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45014</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>200</v>
@@ -508,11 +625,21 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -536,51 +663,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC32CF9-94EF-4BB9-BEAB-3E897C562E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33D4B6-23BB-8745-BCE0-7B6C460BD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
     <sheet name="Card" sheetId="2" r:id="rId2"/>
+    <sheet name="Attachment" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -101,6 +102,18 @@
   </si>
   <si>
     <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>setCover</t>
+  </si>
+  <si>
+    <t>Create a Attachments successfully</t>
+  </si>
+  <si>
+    <t>Image For Me</t>
   </si>
 </sst>
 </file>
@@ -111,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,16 +452,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" customWidth="1"/>
-    <col min="6" max="6" width="18.09765625" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,7 +510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -517,17 +530,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -541,23 +554,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9604356E-1A15-4209-9B72-022C3FA8FAE0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" customWidth="1"/>
-    <col min="9" max="9" width="18.8984375" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -621,7 +634,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -646,7 +659,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -663,4 +676,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB179-E607-934F-9CD0-3DAD35AB983F}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33D4B6-23BB-8745-BCE0-7B6C460BD2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0959AC-1A66-574D-8F8F-15AE6D43C6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Image For Me</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>ImageTest</t>
   </si>
 </sst>
 </file>
@@ -680,10 +686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB179-E607-934F-9CD0-3DAD35AB983F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -692,12 +698,13 @@
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,22 +721,25 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -743,17 +753,20 @@
         <v>28</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>200</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -761,13 +774,14 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -778,6 +792,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0959AC-1A66-574D-8F8F-15AE6D43C6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED93BF-4901-274E-9EDC-8A9BA2D5F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -110,26 +110,46 @@
     <t>setCover</t>
   </si>
   <si>
-    <t>Create a Attachments successfully</t>
-  </si>
-  <si>
-    <t>Image For Me</t>
-  </si>
-  <si>
     <t>fileName</t>
   </si>
   <si>
     <t>ImageTest</t>
+  </si>
+  <si>
+    <t>https://cdn.pixabay.com/photo/2016/09/05/18/54/texture-1647380_960_720.jpg</t>
+  </si>
+  <si>
+    <t>Create a Attachments With File successfully</t>
+  </si>
+  <si>
+    <t>Create a Attachments With URL successfully</t>
+  </si>
+  <si>
+    <t>File Image</t>
+  </si>
+  <si>
+    <t>URL Image</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,8 +193,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -686,10 +711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB179-E607-934F-9CD0-3DAD35AB983F}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -721,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -744,17 +769,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -770,13 +794,23 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>200</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -794,8 +828,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{87CDD153-8735-3744-A06A-EE94BCF74752}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED93BF-4901-274E-9EDC-8A9BA2D5F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81D10B-FEBA-45CD-906E-CE584424B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
-    <sheet name="Card" sheetId="2" r:id="rId2"/>
-    <sheet name="Attachment" sheetId="4" r:id="rId3"/>
+    <sheet name="ListColumn" sheetId="5" r:id="rId2"/>
+    <sheet name="Card" sheetId="2" r:id="rId3"/>
+    <sheet name="Attachment" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -107,15 +108,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>setCover</t>
-  </si>
-  <si>
-    <t>fileName</t>
-  </si>
-  <si>
-    <t>ImageTest</t>
-  </si>
-  <si>
     <t>https://cdn.pixabay.com/photo/2016/09/05/18/54/texture-1647380_960_720.jpg</t>
   </si>
   <si>
@@ -131,7 +123,28 @@
     <t>URL Image</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>Create A List Column in Board Successfully</t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>src\\test\\resources\\config\\ImageTest.jpg</t>
   </si>
 </sst>
 </file>
@@ -142,7 +155,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +163,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -480,19 +493,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -521,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,17 +574,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -582,6 +595,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30535E72-374A-472C-84B7-A49CFA982992}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="6" width="18.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9604356E-1A15-4209-9B72-022C3FA8FAE0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -589,19 +684,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -665,7 +760,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -690,7 +785,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -709,27 +804,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB179-E607-934F-9CD0-3DAD35AB983F}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,76 +839,65 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2">
         <v>200</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>200</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -825,13 +907,6 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81D10B-FEBA-45CD-906E-CE584424B251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94C0A6-0EB6-1941-8C2B-11440E6CABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
     <sheet name="ListColumn" sheetId="5" r:id="rId2"/>
     <sheet name="Card" sheetId="2" r:id="rId3"/>
     <sheet name="Attachment" sheetId="4" r:id="rId4"/>
+    <sheet name="CheckList" sheetId="6" r:id="rId5"/>
+    <sheet name="Stickers" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -145,6 +147,30 @@
   </si>
   <si>
     <t>src\\test\\resources\\config\\ImageTest.jpg</t>
+  </si>
+  <si>
+    <t>Create a CheckList successfully</t>
+  </si>
+  <si>
+    <t>This task should do:</t>
+  </si>
+  <si>
+    <t>Create a Stickers successfully</t>
+  </si>
+  <si>
+    <t>zIndex</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>image</t>
   </si>
 </sst>
 </file>
@@ -155,7 +181,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -163,7 +189,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -496,16 +522,16 @@
       <selection activeCell="G1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.296875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -534,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,7 +580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -574,17 +600,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -602,14 +628,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" customWidth="1"/>
-    <col min="5" max="6" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -629,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -646,27 +672,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -684,19 +710,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="36.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.296875" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -731,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -760,7 +786,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -785,7 +811,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -808,21 +834,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29EB179-E607-934F-9CD0-3DAD35AB983F}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" customWidth="1"/>
-    <col min="2" max="2" width="36.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -874,7 +900,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -897,7 +923,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -915,4 +941,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646EE2EA-E0CE-8D4B-9742-FDC94749ADB7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD05CE-E76A-634E-9CCE-7E09EE143672}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/config/DataTest.xlsx
+++ b/src/test/resources/config/DataTest.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanapoto/Desktop/Trello-Rest-Assured-API/src/test/resources/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trello Rest Assured\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94C0A6-0EB6-1941-8C2B-11440E6CABB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DDB0A-9332-4F84-AD89-27407A891D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
     <sheet name="ListColumn" sheetId="5" r:id="rId2"/>
     <sheet name="Card" sheetId="2" r:id="rId3"/>
     <sheet name="Attachment" sheetId="4" r:id="rId4"/>
-    <sheet name="CheckList" sheetId="6" r:id="rId5"/>
-    <sheet name="Stickers" sheetId="7" r:id="rId6"/>
+    <sheet name="Stickers" sheetId="7" r:id="rId5"/>
+    <sheet name="CheckList" sheetId="6" r:id="rId6"/>
+    <sheet name="CheckItem" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -171,6 +172,24 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>taco-cool</t>
+  </si>
+  <si>
+    <t>Update a Stickers successfully</t>
+  </si>
+  <si>
+    <t>Update a CheckList successfully</t>
+  </si>
+  <si>
+    <t>New task should do:</t>
+  </si>
+  <si>
+    <t>Item 1</t>
+  </si>
+  <si>
+    <t>Item 2</t>
   </si>
 </sst>
 </file>
@@ -181,7 +200,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +208,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -519,19 +538,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="6" max="6" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,7 +599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,17 +619,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -628,14 +647,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="6" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="35.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="5" max="6" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -672,27 +691,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>37</v>
       </c>
@@ -710,19 +729,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -757,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -786,7 +805,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -811,7 +830,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -835,20 +854,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -877,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -900,7 +919,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -908,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>30</v>
@@ -923,7 +942,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -944,23 +963,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646EE2EA-E0CE-8D4B-9742-FDC94749ADB7}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD05CE-E76A-634E-9CCE-7E09EE143672}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -971,50 +989,86 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
+      <c r="D2" s="2">
+        <v>50</v>
       </c>
       <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,22 +1077,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD05CE-E76A-634E-9CCE-7E09EE143672}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646EE2EA-E0CE-8D4B-9742-FDC94749ADB7}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,66 +1104,149 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2">
-        <v>50</v>
-      </c>
-      <c r="G2" s="2">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118F4C29-54C6-4E08-8D34-0D2888E41F58}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.69921875" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
